--- a/server/files/paiements_Général.xlsx
+++ b/server/files/paiements_Général.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
   <si>
     <t>Nom et Prénom(s)</t>
   </si>
@@ -28,34 +28,79 @@
     <t>Option</t>
   </si>
   <si>
+    <t>Matière</t>
+  </si>
+  <si>
+    <t>Pochette</t>
+  </si>
+  <si>
     <t>Nombre de Copies</t>
   </si>
   <si>
     <t>Montant</t>
   </si>
   <si>
-    <t>Ratsimbazafy Leon</t>
-  </si>
-  <si>
-    <t>563159852344</t>
+    <t>tahirindrazana Sambatra</t>
+  </si>
+  <si>
+    <t>516100026320</t>
   </si>
   <si>
     <t>Général</t>
   </si>
   <si>
-    <t>OSE</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Malagasy (PLCR45)</t>
-  </si>
-  <si>
-    <t>Malagasy (TCPL32/TCPL41)</t>
-  </si>
-  <si>
-    <t>Total Correcteur</t>
+    <t>Littéraire</t>
+  </si>
+  <si>
+    <t>Série A1</t>
+  </si>
+  <si>
+    <t>Sciences Physiques</t>
+  </si>
+  <si>
+    <t>Montant total</t>
+  </si>
+  <si>
+    <t>Gilen Feliz</t>
+  </si>
+  <si>
+    <t>345678987345</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>OP56OK</t>
+  </si>
+  <si>
+    <t>Jobs Loic</t>
+  </si>
+  <si>
+    <t>456006445332</t>
+  </si>
+  <si>
+    <t>Scientifique</t>
+  </si>
+  <si>
+    <t>Série C</t>
+  </si>
+  <si>
+    <t>Philosophie</t>
+  </si>
+  <si>
+    <t>LOP56M</t>
+  </si>
+  <si>
+    <t>JOP99OP</t>
+  </si>
+  <si>
+    <t>Série D</t>
+  </si>
+  <si>
+    <t>KOP44G</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -439,17 +484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="3" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,120 +517,356 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>301</v>
+      </c>
+      <c r="I3">
+        <v>270900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>270900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>95</v>
+      </c>
+      <c r="I7">
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>445</v>
-      </c>
-      <c r="G3">
-        <v>400500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>55</v>
-      </c>
-      <c r="G4">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1">
-        <v>450000</v>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>338</v>
+      </c>
+      <c r="I11">
+        <v>304200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12">
+        <v>56</v>
+      </c>
+      <c r="I12">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>398600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1">
+        <v>755000</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/paiements_Général.xlsx
+++ b/server/files/paiements_Général.xlsx
@@ -11,96 +11,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
-  <si>
-    <t>Nom et Prénom(s)</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>Spécialité</t>
-  </si>
-  <si>
-    <t>Secteur</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Matière</t>
-  </si>
-  <si>
-    <t>Pochette</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>Nombre de Copies</t>
   </si>
   <si>
-    <t>Montant</t>
+    <t>Fitiavana-Tanindrazana-Fandrosoana</t>
+  </si>
+  <si>
+    <t>----------------------------</t>
+  </si>
+  <si>
+    <t>MINISTERE DE L'ENSEIGNEMENT SUPPERIEUR</t>
+  </si>
+  <si>
+    <t>ET DE LA RECHERCHE SCIENTIFIQUE</t>
+  </si>
+  <si>
+    <t>UNIVERSITE DE TOLIARA</t>
+  </si>
+  <si>
+    <t>PRESIDENCE</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>tahirindrazana Sambatra</t>
   </si>
   <si>
-    <t>516100026320</t>
+    <t>234123456332</t>
   </si>
   <si>
     <t>Général</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Littéraire</t>
   </si>
   <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>MOP45J</t>
+  </si>
+  <si>
     <t>Série A1</t>
   </si>
   <si>
-    <t>Sciences Physiques</t>
-  </si>
-  <si>
-    <t>Montant total</t>
-  </si>
-  <si>
-    <t>Gilen Feliz</t>
-  </si>
-  <si>
-    <t>345678987345</t>
-  </si>
-  <si>
-    <t>Anglais</t>
+    <t>LOP56H</t>
+  </si>
+  <si>
+    <t>Razz Cyciah</t>
+  </si>
+  <si>
+    <t>678345678090</t>
+  </si>
+  <si>
+    <t>Scientifique</t>
   </si>
   <si>
     <t>OP56OK</t>
-  </si>
-  <si>
-    <t>Jobs Loic</t>
-  </si>
-  <si>
-    <t>456006445332</t>
-  </si>
-  <si>
-    <t>Scientifique</t>
-  </si>
-  <si>
-    <t>Série C</t>
-  </si>
-  <si>
-    <t>Philosophie</t>
-  </si>
-  <si>
-    <t>LOP56M</t>
-  </si>
-  <si>
-    <t>JOP99OP</t>
-  </si>
-  <si>
-    <t>Série D</t>
-  </si>
-  <si>
-    <t>KOP44G</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -142,8 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -484,392 +457,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>301</v>
-      </c>
-      <c r="I3">
-        <v>270900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>270900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>95</v>
-      </c>
-      <c r="I7">
-        <v>85500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>85500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11">
-        <v>338</v>
-      </c>
-      <c r="I11">
-        <v>304200</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>449000</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12">
-        <v>56</v>
-      </c>
-      <c r="I12">
-        <v>50400</v>
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>405000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13">
-        <v>45</v>
+      <c r="H13" t="s">
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>44000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>44000</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>44000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>44000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>398600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="1">
-        <v>755000</v>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>493000</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
